--- a/biology/Botanique/Agathis_microstachya/Agathis_microstachya.xlsx
+++ b/biology/Botanique/Agathis_microstachya/Agathis_microstachya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathis microstachya est une espèce de conifères de la famille des Araucariaceae. Il se rencontre uniquement en Australie. Il est menacé du fait de la destruction de son habitat.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre haut, qui peut atteindre 50 mètres de hauteur et un diamètre de 2,7m. Son écorce est brune et écailleuse. Il est persistant et monoïque.
-Ses feuilles sont linéaires à elliptiques (long : 2-9 cm, large : 5-25 mm), au pétiole glabre. Les cônes mâles sont solitaires et axillaires, sessiles et cylindriques (long : 11-16 mm, diam : 6-8 mm). Les cônes femelles sont solitaires et terminaux, globulaires à ovoïdes (long : 26-35 mm, diam : 35-45 mm)[1].
+Ses feuilles sont linéaires à elliptiques (long : 2-9 cm, large : 5-25 mm), au pétiole glabre. Les cônes mâles sont solitaires et axillaires, sessiles et cylindriques (long : 11-16 mm, diam : 6-8 mm). Les cônes femelles sont solitaires et terminaux, globulaires à ovoïdes (long : 26-35 mm, diam : 35-45 mm).
 </t>
         </is>
       </c>
